--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -32,10 +32,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数字分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数值型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,6 +55,10 @@
   </si>
   <si>
     <t>第3类</t>
+  </si>
+  <si>
+    <t>数字分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -386,7 +386,7 @@
   <dimension ref="A1:D301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -403,10 +403,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -414,7 +414,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -428,7 +428,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -442,7 +442,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -456,7 +456,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -484,7 +484,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -498,7 +498,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -512,7 +512,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -523,7 +523,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -537,7 +537,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -551,7 +551,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -565,7 +565,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -579,7 +579,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
       </c>
       <c r="D14">
         <v>39870</v>
@@ -590,7 +593,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -604,7 +607,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -618,7 +621,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -632,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -646,7 +649,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -660,7 +663,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -674,7 +677,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -688,7 +691,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -702,7 +705,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -716,7 +719,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -730,7 +733,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -744,7 +747,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -758,7 +761,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -772,7 +775,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -786,7 +789,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -800,7 +803,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -814,7 +817,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
       </c>
       <c r="D31">
         <v>17172</v>
@@ -825,7 +831,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -839,7 +845,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -853,7 +859,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -864,7 +870,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -878,7 +884,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -892,7 +898,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -906,7 +912,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -920,7 +926,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -934,7 +940,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C40">
         <v>7</v>
@@ -948,7 +954,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -962,7 +968,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -976,7 +982,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -990,7 +996,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1004,7 +1010,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -1018,7 +1024,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1032,7 +1038,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -1046,7 +1052,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
       </c>
       <c r="D48">
         <v>48379</v>
@@ -1057,7 +1066,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1071,7 +1080,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1085,7 +1094,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -1099,7 +1108,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -1113,7 +1122,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -1127,7 +1136,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C54">
         <v>7</v>
@@ -1141,7 +1150,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C55">
         <v>6</v>
@@ -1155,7 +1164,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -1169,7 +1178,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -1183,7 +1192,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C58">
         <v>6</v>
@@ -1197,7 +1206,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -1211,7 +1220,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -1225,7 +1234,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -1239,7 +1248,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
       </c>
       <c r="D62">
         <v>16388</v>
@@ -1250,7 +1262,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -1264,7 +1276,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -1278,7 +1290,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -1292,7 +1304,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -1306,7 +1318,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -1320,7 +1332,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C68">
         <v>6</v>
@@ -1334,7 +1346,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -1348,7 +1360,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -1362,7 +1374,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -1376,7 +1388,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C72">
         <v>7</v>
@@ -1390,7 +1402,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -1404,7 +1416,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -1418,7 +1430,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -1429,7 +1441,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C76">
         <v>7</v>
@@ -1443,7 +1455,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -1457,7 +1469,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C78">
         <v>7</v>
@@ -1471,7 +1483,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -1485,7 +1497,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C80">
         <v>5</v>
@@ -1499,7 +1511,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -1513,7 +1525,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C82">
         <v>4</v>
@@ -1527,7 +1539,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -1541,7 +1553,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C84">
         <v>7</v>
@@ -1555,7 +1567,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C85">
         <v>5</v>
@@ -1569,7 +1581,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -1583,7 +1595,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C87">
         <v>6</v>
@@ -1597,7 +1609,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C88">
         <v>4</v>
@@ -1611,7 +1623,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C89">
         <v>6</v>
@@ -1625,7 +1637,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C90">
         <v>5</v>
@@ -1639,7 +1651,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -1653,7 +1665,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C92">
         <v>7</v>
@@ -1667,7 +1679,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -1681,7 +1693,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C94">
         <v>4</v>
@@ -1695,7 +1707,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -1709,7 +1721,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C96">
         <v>7</v>
@@ -1723,7 +1735,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C97">
         <v>2</v>
@@ -1737,7 +1749,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -1751,7 +1763,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C99">
         <v>6</v>
@@ -1765,7 +1777,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C100">
         <v>5</v>
@@ -1779,7 +1791,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C101">
         <v>7</v>
@@ -1793,7 +1805,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -1807,7 +1819,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C103">
         <v>4</v>
@@ -1821,7 +1833,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C104">
         <v>5</v>
@@ -1835,7 +1847,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C105">
         <v>3</v>
@@ -1849,7 +1861,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C106">
         <v>3</v>
@@ -1863,7 +1875,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C107">
         <v>6</v>
@@ -1877,7 +1889,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C108">
         <v>3</v>
@@ -1891,7 +1903,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C109">
         <v>4</v>
@@ -1905,7 +1917,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C110">
         <v>2</v>
@@ -1919,7 +1931,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C111">
         <v>3</v>
@@ -1933,7 +1945,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C112">
         <v>6</v>
@@ -1947,7 +1959,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C113">
         <v>4</v>
@@ -1961,7 +1973,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C114">
         <v>4</v>
@@ -1975,7 +1987,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C115">
         <v>6</v>
@@ -1989,7 +2001,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C116">
         <v>2</v>
@@ -2003,7 +2015,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C117">
         <v>7</v>
@@ -2017,7 +2029,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C118">
         <v>2</v>
@@ -2031,7 +2043,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -2045,7 +2057,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C120">
         <v>2</v>
@@ -2059,7 +2071,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C121">
         <v>4</v>
@@ -2073,7 +2085,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C122">
         <v>2</v>
@@ -2087,7 +2099,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C123">
         <v>3</v>
@@ -2101,7 +2113,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C124">
         <v>7</v>
@@ -2115,7 +2127,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C125">
         <v>3</v>
@@ -2129,7 +2141,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -2143,7 +2155,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C127">
         <v>2</v>
@@ -2157,7 +2169,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C128">
         <v>6</v>
@@ -2171,7 +2183,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -2185,7 +2197,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -2199,7 +2211,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C131">
         <v>4</v>
@@ -2213,7 +2225,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C132">
         <v>3</v>
@@ -2227,7 +2239,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C133">
         <v>7</v>
@@ -2241,7 +2253,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C134">
         <v>6</v>
@@ -2255,7 +2267,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C135">
         <v>4</v>
@@ -2269,7 +2281,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C136">
         <v>6</v>
@@ -2283,7 +2295,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -2297,7 +2309,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -2311,7 +2323,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C139">
         <v>2</v>
@@ -2325,7 +2337,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C140">
         <v>4</v>
@@ -2339,7 +2351,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -2353,7 +2365,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C142">
         <v>4</v>
@@ -2367,7 +2379,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C143">
         <v>3</v>
@@ -2381,7 +2393,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C144">
         <v>6</v>
@@ -2395,7 +2407,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C145">
         <v>2</v>
@@ -2409,7 +2421,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C146">
         <v>4</v>
@@ -2423,7 +2435,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C147">
         <v>6</v>
@@ -2437,7 +2449,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C148">
         <v>5</v>
@@ -2451,7 +2463,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C149">
         <v>3</v>
@@ -2465,7 +2477,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C150">
         <v>5</v>
@@ -2479,7 +2491,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C151">
         <v>5</v>
@@ -2493,7 +2505,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C152">
         <v>2</v>
@@ -2507,7 +2519,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C153">
         <v>7</v>
@@ -2521,7 +2533,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -2535,7 +2547,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C155">
         <v>4</v>
@@ -2549,7 +2561,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C156">
         <v>2</v>
@@ -2563,7 +2575,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C157">
         <v>3</v>
@@ -2577,7 +2589,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -2591,7 +2603,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C159">
         <v>2</v>
@@ -2605,7 +2617,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C160">
         <v>4</v>
@@ -2619,7 +2631,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C161">
         <v>7</v>
@@ -2633,7 +2645,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C162">
         <v>6</v>
@@ -2647,7 +2659,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C163">
         <v>4</v>
@@ -2661,7 +2673,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C164">
         <v>4</v>
@@ -2675,7 +2687,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C165">
         <v>7</v>
@@ -2689,7 +2701,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C166">
         <v>3</v>
@@ -2703,7 +2715,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C167">
         <v>3</v>
@@ -2717,7 +2729,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C168">
         <v>6</v>
@@ -2731,7 +2743,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C169">
         <v>3</v>
@@ -2745,7 +2757,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C170">
         <v>6</v>
@@ -2759,7 +2771,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -2773,7 +2785,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C172">
         <v>7</v>
@@ -2787,7 +2799,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C173">
         <v>6</v>
@@ -2801,7 +2813,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C174">
         <v>4</v>
@@ -2815,7 +2827,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C175">
         <v>5</v>
@@ -2829,7 +2841,10 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
       </c>
       <c r="D176">
         <v>32582</v>
@@ -2840,7 +2855,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C177">
         <v>3</v>
@@ -2854,7 +2869,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -2868,7 +2883,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -2882,7 +2897,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C180">
         <v>5</v>
@@ -2896,7 +2911,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -2910,7 +2925,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C182">
         <v>3</v>
@@ -2924,7 +2939,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C183">
         <v>5</v>
@@ -2938,7 +2953,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C184">
         <v>7</v>
@@ -2952,7 +2967,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -2966,7 +2981,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -2980,7 +2995,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C187">
         <v>2</v>
@@ -2994,7 +3009,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C188">
         <v>4</v>
@@ -3008,7 +3023,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -3022,7 +3037,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C190">
         <v>3</v>
@@ -3036,7 +3051,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C191">
         <v>7</v>
@@ -3050,7 +3065,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C192">
         <v>2</v>
@@ -3064,7 +3079,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C193">
         <v>2</v>
@@ -3078,7 +3093,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -3092,7 +3107,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C195">
         <v>7</v>
@@ -3106,7 +3121,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C196">
         <v>7</v>
@@ -3120,7 +3135,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C197">
         <v>6</v>
@@ -3134,7 +3149,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -3148,7 +3163,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C199">
         <v>6</v>
@@ -3162,7 +3177,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C200">
         <v>4</v>
@@ -3176,7 +3191,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C201">
         <v>6</v>
@@ -3190,7 +3205,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C202">
         <v>3</v>
@@ -3204,7 +3219,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C203">
         <v>2</v>
@@ -3218,7 +3233,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C204">
         <v>5</v>
@@ -3232,7 +3247,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C205">
         <v>5</v>
@@ -3246,7 +3261,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C206">
         <v>6</v>
@@ -3260,7 +3275,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C207">
         <v>7</v>
@@ -3274,7 +3289,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C208">
         <v>6</v>
@@ -3288,7 +3303,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C209">
         <v>6</v>
@@ -3302,7 +3317,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C210">
         <v>3</v>
@@ -3316,7 +3331,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C211">
         <v>5</v>
@@ -3330,7 +3345,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C212">
         <v>2</v>
@@ -3344,7 +3359,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C213">
         <v>6</v>
@@ -3358,7 +3373,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C214">
         <v>2</v>
@@ -3372,7 +3387,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C215">
         <v>4</v>
@@ -3386,7 +3401,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C216">
         <v>6</v>
@@ -3400,7 +3415,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C217">
         <v>5</v>
@@ -3414,7 +3429,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C218">
         <v>4</v>
@@ -3428,7 +3443,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C219">
         <v>7</v>
@@ -3442,7 +3457,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C220">
         <v>6</v>
@@ -3456,7 +3471,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -3470,7 +3485,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C222">
         <v>6</v>
@@ -3484,7 +3499,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C223">
         <v>5</v>
@@ -3498,7 +3513,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C224">
         <v>6</v>
@@ -3512,7 +3527,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C225">
         <v>6</v>
@@ -3526,7 +3541,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -3540,7 +3555,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C227">
         <v>2</v>
@@ -3554,7 +3569,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -3568,7 +3583,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -3582,7 +3597,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C230">
         <v>4</v>
@@ -3596,7 +3611,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C231">
         <v>2</v>
@@ -3610,7 +3625,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -3624,7 +3639,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C233">
         <v>6</v>
@@ -3638,7 +3653,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C234">
         <v>7</v>
@@ -3652,7 +3667,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C235">
         <v>3</v>
@@ -3666,7 +3681,10 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C236">
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
@@ -3674,7 +3692,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C237">
         <v>7</v>
@@ -3688,7 +3706,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C238">
         <v>6</v>
@@ -3702,7 +3720,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C239">
         <v>6</v>
@@ -3716,7 +3734,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C240">
         <v>5</v>
@@ -3730,7 +3748,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C241">
         <v>4</v>
@@ -3744,7 +3762,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C242">
         <v>2</v>
@@ -3758,7 +3776,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C243">
         <v>7</v>
@@ -3772,7 +3790,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C244">
         <v>3</v>
@@ -3786,7 +3804,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C245">
         <v>7</v>
@@ -3800,7 +3818,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -3814,7 +3832,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C247">
         <v>2</v>
@@ -3828,7 +3846,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C248">
         <v>4</v>
@@ -3842,7 +3860,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C249">
         <v>7</v>
@@ -3856,7 +3874,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C250">
         <v>3</v>
@@ -3870,7 +3888,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C251">
         <v>1</v>
@@ -3884,7 +3902,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C252">
         <v>2</v>
@@ -3898,7 +3916,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C253">
         <v>3</v>
@@ -3912,7 +3930,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C254">
         <v>2</v>
@@ -3926,7 +3944,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C255">
         <v>2</v>
@@ -3940,7 +3958,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C256">
         <v>4</v>
@@ -3954,7 +3972,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C257">
         <v>7</v>
@@ -3968,7 +3986,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C258">
         <v>1</v>
@@ -3982,7 +4000,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C259">
         <v>4</v>
@@ -3996,7 +4014,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C260">
         <v>5</v>
@@ -4010,7 +4028,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C261">
         <v>4</v>
@@ -4024,7 +4042,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C262">
         <v>7</v>
@@ -4038,7 +4056,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C263">
         <v>2</v>
@@ -4052,7 +4070,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C264">
         <v>5</v>
@@ -4066,7 +4084,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C265">
         <v>2</v>
@@ -4080,7 +4098,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C266">
         <v>7</v>
@@ -4094,7 +4112,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C267">
         <v>6</v>
@@ -4108,7 +4126,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C268">
         <v>6</v>
@@ -4122,7 +4140,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C269">
         <v>2</v>
@@ -4136,7 +4154,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C270">
         <v>6</v>
@@ -4150,7 +4168,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C271">
         <v>1</v>
@@ -4164,7 +4182,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C272">
         <v>3</v>
@@ -4178,7 +4196,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C273">
         <v>5</v>
@@ -4192,7 +4210,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C274">
         <v>6</v>
@@ -4206,7 +4224,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C275">
         <v>5</v>
@@ -4220,7 +4238,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C276">
         <v>7</v>
@@ -4234,7 +4252,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C277">
         <v>6</v>
@@ -4248,7 +4266,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C278">
         <v>6</v>
@@ -4262,7 +4280,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C279">
         <v>1</v>
@@ -4276,7 +4294,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C280">
         <v>6</v>
@@ -4290,7 +4308,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C281">
         <v>7</v>
@@ -4304,7 +4322,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C282">
         <v>5</v>
@@ -4318,7 +4336,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C283">
         <v>3</v>
@@ -4332,7 +4350,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C284">
         <v>7</v>
@@ -4346,7 +4364,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C285">
         <v>4</v>
@@ -4360,7 +4378,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C286">
         <v>4</v>
@@ -4374,7 +4392,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C287">
         <v>4</v>
@@ -4388,7 +4406,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C288">
         <v>5</v>
@@ -4402,7 +4420,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C289">
         <v>7</v>
@@ -4416,7 +4434,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C290">
         <v>1</v>
@@ -4430,7 +4448,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C291">
         <v>2</v>
@@ -4444,7 +4462,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C292">
         <v>2</v>
@@ -4458,7 +4476,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C293">
         <v>6</v>
@@ -4472,7 +4490,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C294">
         <v>3</v>
@@ -4486,7 +4504,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C295">
         <v>3</v>
@@ -4500,7 +4518,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C296">
         <v>5</v>
@@ -4514,7 +4532,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C297">
         <v>6</v>
@@ -4525,7 +4543,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C298">
         <v>5</v>
@@ -4539,7 +4557,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C299">
         <v>4</v>
@@ -4553,7 +4571,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C300">
         <v>5</v>
@@ -4567,7 +4585,10 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="C301">
+        <v>3</v>
       </c>
       <c r="D301">
         <v>40733</v>
@@ -4576,5 +4597,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>